--- a/biology/Botanique/Ardisia_premontana/Ardisia_premontana.xlsx
+++ b/biology/Botanique/Ardisia_premontana/Ardisia_premontana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardisia premontana est une espèce de plantes à fleurs de la famille des Primulaceae, originaire de l'Équateur et du Pérou.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,10 +551,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite en 1996 par le botaniste John J. Pipoly (1955-). L'épithète spécifique premontana signifie « prémontagneuse ».
-En classification phylogénétique APG III (2009)[3], l'espèce fait partie de la famille des Primulaceae. En classification classique de Cronquist (1981)[4] et en classification phylogénétique APG II (2003)[5], le genre Ardisia était assigné à la famille des Myrsinaceae.
+En classification phylogénétique APG III (2009), l'espèce fait partie de la famille des Primulaceae. En classification classique de Cronquist (1981) et en classification phylogénétique APG II (2003), le genre Ardisia était assigné à la famille des Myrsinaceae.
 </t>
         </is>
       </c>
@@ -569,9 +585,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire de l'Équateur et du Pérou[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire de l'Équateur et du Pérou.
 </t>
         </is>
       </c>
